--- a/Pasajes/Scripts/Beneficios-correcto.xlsx
+++ b/Pasajes/Scripts/Beneficios-correcto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="466">
   <si>
     <t>Titulo</t>
   </si>
@@ -66,105 +66,108 @@
     <t>10%</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>debito</t>
+  </si>
+  <si>
+    <t>lunes, martes, miercoles, jueves, viernes, sabado, domingo</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD - CARTERA CONSUMO. PROMOCIÓN VÁLIDA EN LA REPÚBLICA ARGENTINA SÓLO EN LOS COMERCIOS Y DIAS INDICADOS EN LA PIEZA [sc name="fechas-buscador"][/sc], AMBOS INCLUSIVE, PARA CONSUMOS EFECTUADOS CON TARJETAS DE CRÉDITO VISA EMITIDAS POR ESTE BANCO QUE NO REGISTREN MORA. CONSULTAR PRODUCTOS SELECCIONADOS EN EL COMERCIO AL MOMENTO DE LA COMPRA. NO ACUMULABLE CON OTRAS PROMOCIONES. NO APLICA A LAS OPERACIONES DE EXTRACCIÓN DE DINERO EN EFECTIVO REALIZADAS A TRAVÉS DE EXTRA-CASH. NO APLICA PARA LOS CONSUMOS EFECTUADOS A TRAVÉS DE LA PLATAFORMA MERCADOPAGO. NO APLICA A LOS PAGOS REALIZADOS POR LA PLATAFORMA DE PAGOS MÓVILES (POS MÓVIL, BOTÓN DE PAGO Y BILLETERA ELECTRÓNICA).NO INCLUYE COMPRA DE PRODUCTOS CON LOS PLANES AHORA. EL REINTEGRO SE VERÁ REFLEJADO EN EL RESUMEN DE LA CUENTA VISA A LOS 60 DÍAS POSTERIORES AL CIERRE DE LA LIQUIDACIÓN DEL PERÍODO EN EL QUE SE REALICE EL CONSUMO. COSTO FINANCIERO TOTAL (CFT) 0.00% PARA PLANES DE 3 CUOTAS CON TASA NOMINAL ANUAL (TNA) / TASA EFECTIVA ANUAL (TEA) 0.00%. BANCO HIPOTECARIO S.A. RECONQUISTA 151 (1003) CABA. CUIT 30-50001107-2.</t>
+  </si>
+  <si>
+    <t>Con tu tarjeta de crédito - Productos seleccionados - Tienda física y online</t>
+  </si>
+  <si>
+    <t>93733</t>
+  </si>
+  <si>
+    <t>100% de ahorro - sin tope - todos los días</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD , CARTERA CONSUMO. PROMOCIÓN VÁLIDA EN LA REPÚBLICA ARGENTINA SÓLO EN LOS COMERCIOS Y DIAS INDICADOS EN LA PIEZA [sc name="fechas-buscador"][/sc], AMBOS INCLUSIVE, PARA CONSUMOS EFECTUADOS CON TARJETA DE DÉBITO VISA EMITIDA POR ESTE BANCO QUE NO REGISTRE MORA. NO ACUMULABLE CON OTRAS PROMOCIONES NI CARTERA DE CLIENTES QUE ACREDITEN PLANES SOCIALES. NO APLICA A LAS OPERACIONES DE EXTRACCIÓN DE DINERO EN EFECTIVO REALIZADAS A TRAVÉS DE EXTRA,CASH. NO APLICA PARA LOS CONSUMOS EFECTUADOS A TRAVÉS DE LA PLATAFORMA MERCADOPAGO. NO APLICA A LOS PAGOS REALIZADOS POR LA PLATAFORMA DE PAGOS MÓVILES (POS MÓVIL, BOTÓN DE PAGO Y BILLETERA ELECTRÓNICA). CONSULTAR PRODUCTOS SELECCIONADOS EN EL COMERCIO ANTES DE REALIZAR LA COMPRA. EL REINTEGRO SE ACREDITARÁ EN LA CUENTA DE ORIGEN DE LOS FONDOS A LOS 30 DÍAS HÁBILES DE INGRESADO EL CONSUMO. CONSULTE EL AHORRO APLICABLE Y VIGENTE EN CADA COMERCIO ANTES DE EFECTUAR LA COMPRA. BANCO HIPOTECARIO S.A. RECONQUISTA 151 (1003) CABA. CUIT 30-50001107-2.</t>
+  </si>
+  <si>
+    <t>Con tu tarjeta de débito - productos seleccionados</t>
+  </si>
+  <si>
+    <t>93805</t>
+  </si>
+  <si>
+    <t>12 cuotas sin interés</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>lunes, martes, miercoles, jueves, viernes, sabado</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD - CARTERA CONSUMO. PROMOCIÓN VÁLIDA EN LA REPÚBLICA ARGENTINA ARGENTINA SÓLO EN LOS COMERCIOS Y DIAS INDICADOS EN LA PIEZA [sc name="fechas-buscador"][/sc], AMBOS INCLUSIVE, PARA CONSUMOS EFECTUADOS CON TARJETA DE CRÉDITO VISA EMITIDA POR ESTE BANCO QUE NO REGISTREN MORA. NO APLICA A LAS OPERACIONES DE EXTRACCIÓN DE DINERO EN EFECTIVO REALIZADAS A TRAVÉS DE EXTRA-CASH. NO APLICA PARA LOS CONSUMOS EFECTUADOS A TRAVÉS DE LA PLATAFORMA MERCADOPAGO. NO APLICA A LOS PAGOS REALIZADOS POR LA PLATAFORMA DE PAGOS MÓVILES (POS MÓVIL, BOTÓN DE PAGO Y BILLETERA ELECTRÓNICA). NO ACUMULABLE CON OTRAS PROMOCIONES. NO INCLUYE COMPRA DE PRODUCTOS CON LOS PLANES AHORA NI CARTERA DE CLIENTES QUE ACREDITEN PLANES SOCIALES. CONSULTAR PRODUCTOS SELECCIONADOS EN EL COMERCIO ANTES DE REALIZAR LA COMPRA. COSTO FINANCIERO TOTAL (CFT) 0.0% ÚNICAMENTE PARA PLANES DE 12 CUOTAS. CUOTAS SEGÚN SE INDICA EN LA PIEZA CON TASA NOMINAL ANUAL (TNA) 0.0% / TASA EFECTIVA ANUAL (TEA) 0.0%.BANCO HIPOTECARIO S.A. RECONQUISTA 151 (1003) CABA. CUIT 30-50001107-2.</t>
+  </si>
+  <si>
+    <t>12 cuotas sin interés desde el 22 al 27 de julio</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>142152</t>
+  </si>
+  <si>
+    <t>12 cuotas sin interés - Jueves</t>
+  </si>
+  <si>
+    <t>jueves</t>
+  </si>
+  <si>
+    <t>93753</t>
+  </si>
+  <si>
+    <t>15% de ahorro - sin tope - jueves</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD , CARTERA CONSUMO. PROMOCIÓN VÁLIDA EN LA REPÚBLICA ARGENTINA SÓLO EN LOS COMERCIOS Y DIAS INDICADOS EN LA PIEZA [sc name="fechas-buscador"][/sc], AMBOS INCLUSIVE, PARA CONSUMOS EFECTUADOS CON TARJETA DE DÉBITO VISA EMITIDA POR ESTE BANCO QUE NO REGISTRE MORA. NO ACUMULABLE CON OTRAS PROMOCIONES, NI CARTERA DE CLIENTES QUE ACREDITEN PLANES SOCIALES . NO APLICA A LAS OPERACIONES DE EXTRACCIÓN DE DINERO EN EFECTIVO REALIZADAS A TRAVÉS DE EXTRA,CASH. NO APLICA PARA LOS CONSUMOS EFECTUADOS A TRAVÉS DE LA PLATAFORMA MERCADOPAGO. NO APLICA A LOS PAGOS REALIZADOS POR LA PLATAFORMA DE PAGOS MÓVILES (POS MÓVIL, BOTÓN DE PAGO Y BILLETERA ELECTRÓNICA). CONSULTAR PRODUCTOS SELECCIONADOS EN EL COMERCIO ANTES DE REALIZAR LA COMPRA. EL REINTEGRO SE ACREDITARÁ EN LA CUENTA DE ORIGEN DE LOS FONDOS A LOS 30 DÍAS HÁBILES DE INGRESADO EL CONSUMO. CONSULTE EL AHORRO APLICABLE Y VIGENTE EN CADA COMERCIO ANTES DE EFECTUAR LA COMPRA. BANCO HIPOTECARIO S.A. RECONQUISTA 151 (1003) CABA. CUIT 30-50001107-2.</t>
+  </si>
+  <si>
+    <t>93849</t>
+  </si>
+  <si>
+    <t>15% de ahorro - sin tope - Lunes a Viernes</t>
+  </si>
+  <si>
+    <t>lunes, martes, miercoles, jueves, viernes</t>
+  </si>
+  <si>
+    <t>Con tu tarjeta de débito - Todos los productos</t>
+  </si>
+  <si>
+    <t>136115</t>
+  </si>
+  <si>
+    <t>15% de ahorro - sin tope - todos los días</t>
+  </si>
+  <si>
+    <t>93807</t>
+  </si>
+  <si>
+    <t>15% de ahorro en 3 cuotas sin interés - Jueves y viernes</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>credito</t>
-  </si>
-  <si>
-    <t>lunes, martes, miercoles, jueves, viernes, sabado, domingo</t>
-  </si>
-  <si>
-    <t>PUBLICIDAD - CARTERA CONSUMO. PROMOCIÓN VÁLIDA EN LA REPÚBLICA ARGENTINA SÓLO EN LOS COMERCIOS Y DIAS INDICADOS EN LA PIEZA [sc name="fechas-buscador"][/sc], AMBOS INCLUSIVE, PARA CONSUMOS EFECTUADOS CON TARJETAS DE CRÉDITO VISA EMITIDAS POR ESTE BANCO QUE NO REGISTREN MORA. CONSULTAR PRODUCTOS SELECCIONADOS EN EL COMERCIO AL MOMENTO DE LA COMPRA. NO ACUMULABLE CON OTRAS PROMOCIONES. NO APLICA A LAS OPERACIONES DE EXTRACCIÓN DE DINERO EN EFECTIVO REALIZADAS A TRAVÉS DE EXTRA-CASH. NO APLICA PARA LOS CONSUMOS EFECTUADOS A TRAVÉS DE LA PLATAFORMA MERCADOPAGO. NO APLICA A LOS PAGOS REALIZADOS POR LA PLATAFORMA DE PAGOS MÓVILES (POS MÓVIL, BOTÓN DE PAGO Y BILLETERA ELECTRÓNICA).NO INCLUYE COMPRA DE PRODUCTOS CON LOS PLANES AHORA. EL REINTEGRO SE VERÁ REFLEJADO EN EL RESUMEN DE LA CUENTA VISA A LOS 60 DÍAS POSTERIORES AL CIERRE DE LA LIQUIDACIÓN DEL PERÍODO EN EL QUE SE REALICE EL CONSUMO. COSTO FINANCIERO TOTAL (CFT) 0.00% PARA PLANES DE 3 CUOTAS CON TASA NOMINAL ANUAL (TNA) / TASA EFECTIVA ANUAL (TEA) 0.00%. BANCO HIPOTECARIO S.A. RECONQUISTA 151 (1003) CABA. CUIT 30-50001107-2.</t>
-  </si>
-  <si>
-    <t>Con tu tarjeta de crédito - Productos seleccionados - Tienda física y online</t>
-  </si>
-  <si>
-    <t>93733</t>
-  </si>
-  <si>
-    <t>100% de ahorro - sin tope - todos los días</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>debito</t>
-  </si>
-  <si>
-    <t>PUBLICIDAD , CARTERA CONSUMO. PROMOCIÓN VÁLIDA EN LA REPÚBLICA ARGENTINA SÓLO EN LOS COMERCIOS Y DIAS INDICADOS EN LA PIEZA [sc name="fechas-buscador"][/sc], AMBOS INCLUSIVE, PARA CONSUMOS EFECTUADOS CON TARJETA DE DÉBITO VISA EMITIDA POR ESTE BANCO QUE NO REGISTRE MORA. NO ACUMULABLE CON OTRAS PROMOCIONES NI CARTERA DE CLIENTES QUE ACREDITEN PLANES SOCIALES. NO APLICA A LAS OPERACIONES DE EXTRACCIÓN DE DINERO EN EFECTIVO REALIZADAS A TRAVÉS DE EXTRA,CASH. NO APLICA PARA LOS CONSUMOS EFECTUADOS A TRAVÉS DE LA PLATAFORMA MERCADOPAGO. NO APLICA A LOS PAGOS REALIZADOS POR LA PLATAFORMA DE PAGOS MÓVILES (POS MÓVIL, BOTÓN DE PAGO Y BILLETERA ELECTRÓNICA). CONSULTAR PRODUCTOS SELECCIONADOS EN EL COMERCIO ANTES DE REALIZAR LA COMPRA. EL REINTEGRO SE ACREDITARÁ EN LA CUENTA DE ORIGEN DE LOS FONDOS A LOS 30 DÍAS HÁBILES DE INGRESADO EL CONSUMO. CONSULTE EL AHORRO APLICABLE Y VIGENTE EN CADA COMERCIO ANTES DE EFECTUAR LA COMPRA. BANCO HIPOTECARIO S.A. RECONQUISTA 151 (1003) CABA. CUIT 30-50001107-2.</t>
-  </si>
-  <si>
-    <t>Con tu tarjeta de débito - productos seleccionados</t>
-  </si>
-  <si>
-    <t>93805</t>
-  </si>
-  <si>
-    <t>12 cuotas sin interés</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>lunes, martes, miercoles, jueves, viernes, sabado</t>
-  </si>
-  <si>
-    <t>PUBLICIDAD - CARTERA CONSUMO. PROMOCIÓN VÁLIDA EN LA REPÚBLICA ARGENTINA ARGENTINA SÓLO EN LOS COMERCIOS Y DIAS INDICADOS EN LA PIEZA [sc name="fechas-buscador"][/sc], AMBOS INCLUSIVE, PARA CONSUMOS EFECTUADOS CON TARJETA DE CRÉDITO VISA EMITIDA POR ESTE BANCO QUE NO REGISTREN MORA. NO APLICA A LAS OPERACIONES DE EXTRACCIÓN DE DINERO EN EFECTIVO REALIZADAS A TRAVÉS DE EXTRA-CASH. NO APLICA PARA LOS CONSUMOS EFECTUADOS A TRAVÉS DE LA PLATAFORMA MERCADOPAGO. NO APLICA A LOS PAGOS REALIZADOS POR LA PLATAFORMA DE PAGOS MÓVILES (POS MÓVIL, BOTÓN DE PAGO Y BILLETERA ELECTRÓNICA). NO ACUMULABLE CON OTRAS PROMOCIONES. NO INCLUYE COMPRA DE PRODUCTOS CON LOS PLANES AHORA NI CARTERA DE CLIENTES QUE ACREDITEN PLANES SOCIALES. CONSULTAR PRODUCTOS SELECCIONADOS EN EL COMERCIO ANTES DE REALIZAR LA COMPRA. COSTO FINANCIERO TOTAL (CFT) 0.0% ÚNICAMENTE PARA PLANES DE 12 CUOTAS. CUOTAS SEGÚN SE INDICA EN LA PIEZA CON TASA NOMINAL ANUAL (TNA) 0.0% / TASA EFECTIVA ANUAL (TEA) 0.0%.BANCO HIPOTECARIO S.A. RECONQUISTA 151 (1003) CABA. CUIT 30-50001107-2.</t>
-  </si>
-  <si>
-    <t>12 cuotas sin interés desde el 22 al 27 de julio</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>142152</t>
-  </si>
-  <si>
-    <t>12 cuotas sin interés - Jueves</t>
-  </si>
-  <si>
-    <t>jueves</t>
-  </si>
-  <si>
-    <t>93753</t>
-  </si>
-  <si>
-    <t>15% de ahorro - sin tope - jueves</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>PUBLICIDAD , CARTERA CONSUMO. PROMOCIÓN VÁLIDA EN LA REPÚBLICA ARGENTINA SÓLO EN LOS COMERCIOS Y DIAS INDICADOS EN LA PIEZA [sc name="fechas-buscador"][/sc], AMBOS INCLUSIVE, PARA CONSUMOS EFECTUADOS CON TARJETA DE DÉBITO VISA EMITIDA POR ESTE BANCO QUE NO REGISTRE MORA. NO ACUMULABLE CON OTRAS PROMOCIONES, NI CARTERA DE CLIENTES QUE ACREDITEN PLANES SOCIALES . NO APLICA A LAS OPERACIONES DE EXTRACCIÓN DE DINERO EN EFECTIVO REALIZADAS A TRAVÉS DE EXTRA,CASH. NO APLICA PARA LOS CONSUMOS EFECTUADOS A TRAVÉS DE LA PLATAFORMA MERCADOPAGO. NO APLICA A LOS PAGOS REALIZADOS POR LA PLATAFORMA DE PAGOS MÓVILES (POS MÓVIL, BOTÓN DE PAGO Y BILLETERA ELECTRÓNICA). CONSULTAR PRODUCTOS SELECCIONADOS EN EL COMERCIO ANTES DE REALIZAR LA COMPRA. EL REINTEGRO SE ACREDITARÁ EN LA CUENTA DE ORIGEN DE LOS FONDOS A LOS 30 DÍAS HÁBILES DE INGRESADO EL CONSUMO. CONSULTE EL AHORRO APLICABLE Y VIGENTE EN CADA COMERCIO ANTES DE EFECTUAR LA COMPRA. BANCO HIPOTECARIO S.A. RECONQUISTA 151 (1003) CABA. CUIT 30-50001107-2.</t>
-  </si>
-  <si>
-    <t>93849</t>
-  </si>
-  <si>
-    <t>15% de ahorro - sin tope - Lunes a Viernes</t>
-  </si>
-  <si>
-    <t>lunes, martes, miercoles, jueves, viernes</t>
-  </si>
-  <si>
-    <t>Con tu tarjeta de débito - Todos los productos</t>
-  </si>
-  <si>
-    <t>136115</t>
-  </si>
-  <si>
-    <t>15% de ahorro - sin tope - todos los días</t>
-  </si>
-  <si>
-    <t>93807</t>
-  </si>
-  <si>
-    <t>15% de ahorro en 3 cuotas sin interés - Jueves y viernes</t>
-  </si>
-  <si>
     <t>jueves, viernes</t>
   </si>
   <si>
@@ -354,7 +357,7 @@
     <t>PUBLICIDAD - CARTERA CONSUMO. PROMOCIÓN VÁLIDA EN LA REPÚBLICA ARGENTINA SÓLO EN LOS COMERCIOS Y DIAS INDICADOS EN LA PIEZA [sc name="fechas-buscador"][/sc], AMBOS INCLUSIVE, PARA CONSUMOS EFECTUADOS CON TARJETA DE DÉBITO VISA EMITIDA POR ESTE BANCO QUE NO REGISTRE MORA. NO ACUMULABLE CON OTRAS PROMOCIONES, NI CARTERA DE CLIENTES QUE ACREDITEN PLANES SOCIALES . NO APLICA A LAS OPERACIONES DE EXTRACCIÓN DE DINERO EN EFECTIVO REALIZADAS A TRAVÉS DE EXTRA-CASH. NO APLICA PARA LOS CONSUMOS EFECTUADOS A TRAVÉS DE LA PLATAFORMA MERCADOPAGO. NO APLICA A LOS PAGOS REALIZADOS POR LA PLATAFORMA DE PAGOS MÓVILES (POS MÓVIL, BOTÓN DE PAGO Y BILLETERA ELECTRÓNICA). EL TOPE MENSUAL Y POR CUENTA. EL REINTEGRO SE ACREDITARÁ EN LA CUENTA DE ORIGEN DE LOS FONDOS A LOS 30 DÍAS HÁBILES DE INGRESADO EL CONSUMO. CONSULTE EL AHORRO APLICABLE Y VIGENTE EN CADA COMERCIO ANTES DE EFECTUAR LA COMPRA. BANCO HIPOTECARIO S.A. RECONQUISTA 151 (1003) CABA. CUIT 30-50001107-2</t>
   </si>
   <si>
-    <t>10,000</t>
+    <t>10000</t>
   </si>
   <si>
     <t>93767</t>
@@ -405,9 +408,6 @@
     <t>25% de ahorro y 3 cuotas sin interes - Sabados y Domingos - Búho One .v1</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>110539</t>
   </si>
   <si>
@@ -748,9 +748,6 @@
   </si>
   <si>
     <t>Especial Construcción El Cañadon</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>PUBLICIDAD - CARTERA DE CONSUMO. PROMOCIONES VÁLIDAS EN LA REPÚBLICA ARGENTINA DESDE EL 19/02/2024 HASTA EL 24/02/2024, AMBOS INCLUSIVE (EN ADELANTE “PLAZO DE VIGENCIA”), PARA CONSUMOS EFECTUADOS CON TARJETA DE CRÉDITO Y DEBITO VISA EMITIDAS POR ESTE BANCO QUE NO REGISTREN MORA. (1) PROMOCIÓN VÁLIDA EXCLUSIVAMENTE EN TIENDAS PRESENCIALES DE EL CAÑADON SRL BENEFICIO: PARA TODOS LOS CLIENTES 30% DE DESCUENTO CON TOPE DE REINTEGRO DE $30.000 EN 1 PAGO O 4 CUOTAS SIN INTERÉS. NO ACUMULABLE CON OTRAS PROMOCIONES, DESCUENTOS EN LÍNEA DE CAJA PROPIOS DE CADA COMERCIO NI FINANCIACIÓN DEL PROGRAMA CUOTA SIMPLE DEL GOBIERNO NACIONAL. NO APLICA A LAS OPERACIONES DE EXTRACCIÓN DE DINERO EN EFECTIVOREALIZADAS A TRAVÉS DE EXTRA-CASH. NO APLICA A LOS PAGOS REALIZADOS POR LA PLATAFORMA DE PAGOS MÓVILES (POS MÓVIL, BOTÓN DE PAGO, BILLETERA ELECTRÓNICA Y MERCADOPAGO/MODO). CONSULTE EL AHORRO APLICABLE Y VIGENTE EN CADA COMERCIO ANTES DE EFECTUAR LA COMPRA. REINTEGRO: CONSUMOS CON TARJETA DE DÉBITO: SE ACREDITARÁ EN LA CUENTA DE ORIGEN DE LOS FONDOS A LOS 30 DÍAS HÁBILES DE INGRESADO El CONSUMO. CONSUMOS CON TARJETA DE CRÉDITO: EL REINTEGRO SE VERÁ REFLEJADO EN EL RESUMEN A LOS 60 DÍAS POSTERIORES AL CIERRE DE LA LIQUIDACIÓN DEL PERÍODO EN EL QUE SE REALICE EL CONSUMO. EL TOPE DE REINTEGRO ES MENSUAL Y POR VIGENCIA DE LA CAMPAÑA. COSTO FINANCIERO TOTAL (CFT) 0.00% ÚNICAMENTE PARA PLANES DE 4 CUOTAS CON TASA NOMINAL. BANCO HIPOTECARIO S.A. CUIT 30-50001107-2.</t>
@@ -1423,7 +1420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1435,6 +1432,11 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1458,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1466,7 +1468,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1766,7 +1771,7 @@
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1809,28 +1814,28 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1848,17 +1853,17 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
@@ -1901,10 +1906,10 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>36</v>
@@ -1941,12 +1946,12 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>36</v>
@@ -1957,7 +1962,7 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1985,19 +1990,19 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
@@ -2029,23 +2034,23 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2073,30 +2078,30 @@
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2114,35 +2119,35 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2160,19 +2165,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>43</v>
@@ -2183,12 +2188,12 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2206,33 +2211,33 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2250,24 +2255,24 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>62</v>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
@@ -2276,7 +2281,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2294,33 +2299,33 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>62</v>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2338,22 +2343,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>62</v>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
@@ -2361,12 +2366,12 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2384,35 +2389,35 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>62</v>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -2430,35 +2435,35 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>62</v>
+      <c r="C17" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2476,7 +2481,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
@@ -2484,7 +2489,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>30</v>
@@ -2495,14 +2500,14 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2520,7 +2525,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
@@ -2528,25 +2533,25 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2564,35 +2569,35 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="3" t="s">
         <v>88</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2610,35 +2615,35 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2656,35 +2661,35 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2702,35 +2707,35 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>88</v>
+        <v>105</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2748,35 +2753,35 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>88</v>
+      <c r="C24" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2794,27 +2799,27 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>88</v>
+      <c r="C25" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>44</v>
@@ -2822,7 +2827,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2840,33 +2845,33 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>88</v>
+      <c r="C26" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -2884,33 +2889,33 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>88</v>
+      <c r="C27" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2928,33 +2933,33 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>88</v>
+      <c r="C28" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -2972,37 +2977,37 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -3020,32 +3025,32 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3073,14 +3078,14 @@
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>88</v>
+      <c r="C31" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>18</v>
@@ -3119,14 +3124,14 @@
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>88</v>
+      <c r="C32" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>18</v>
@@ -3163,29 +3168,29 @@
         <v>136</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
         <v>137</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3215,10 +3220,10 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
@@ -3231,7 +3236,7 @@
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3261,10 +3266,10 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>144</v>
@@ -3277,7 +3282,7 @@
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3307,15 +3312,15 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>147</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3323,7 +3328,7 @@
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3353,10 +3358,10 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>18</v>
@@ -3367,7 +3372,7 @@
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3397,10 +3402,10 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>154</v>
@@ -3411,7 +3416,7 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3439,23 +3444,23 @@
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3483,23 +3488,23 @@
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3529,10 +3534,10 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>36</v>
@@ -3575,13 +3580,13 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>164</v>
@@ -3591,7 +3596,7 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3621,10 +3626,10 @@
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>144</v>
@@ -3667,16 +3672,16 @@
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>174</v>
@@ -3713,21 +3718,21 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -3757,10 +3762,10 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>18</v>
@@ -3771,7 +3776,7 @@
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3801,13 +3806,13 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>183</v>
@@ -3847,10 +3852,10 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>36</v>
@@ -3863,7 +3868,7 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3893,13 +3898,13 @@
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>147</v>
@@ -3935,16 +3940,16 @@
         <v>192</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>193</v>
@@ -3954,7 +3959,7 @@
         <v>194</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>195</v>
@@ -3985,14 +3990,14 @@
       <c r="B51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>62</v>
+      <c r="C51" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>36</v>
@@ -4030,21 +4035,21 @@
       <c r="A52" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>202</v>
@@ -4079,14 +4084,14 @@
       <c r="B53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>36</v>
@@ -4123,14 +4128,14 @@
         <v>209</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>144</v>
@@ -4140,7 +4145,7 @@
         <v>210</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>211</v>
@@ -4169,14 +4174,14 @@
         <v>213</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="3" t="s">
         <v>88</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>18</v>
@@ -4186,7 +4191,7 @@
         <v>210</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>214</v>
@@ -4217,17 +4222,17 @@
       <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
@@ -4260,15 +4265,15 @@
       <c r="A57" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>221</v>
@@ -4309,17 +4314,17 @@
       <c r="B58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>147</v>
@@ -4357,17 +4362,17 @@
       <c r="B59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>147</v>
@@ -4410,7 +4415,7 @@
         <v>234</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>235</v>
@@ -4451,10 +4456,10 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>239</v>
@@ -4492,37 +4497,37 @@
       <c r="A62" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -4540,35 +4545,35 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>88</v>
+      <c r="C63" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -4586,35 +4591,35 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>88</v>
+      <c r="C64" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -4632,35 +4637,35 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -4678,33 +4683,33 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -4722,20 +4727,20 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
@@ -4743,12 +4748,12 @@
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -4766,39 +4771,39 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -4816,37 +4821,37 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>88</v>
+      <c r="C69" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>154</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -4864,33 +4869,33 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B70" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -4908,17 +4913,17 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>18</v>
@@ -4934,7 +4939,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -4952,35 +4957,35 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>88</v>
+      <c r="C72" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -4998,27 +5003,27 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>88</v>
+      <c r="C73" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>44</v>
@@ -5026,7 +5031,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -5044,37 +5049,37 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>88</v>
+      <c r="C74" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -5092,20 +5097,20 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>140</v>
@@ -5115,12 +5120,12 @@
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -5138,35 +5143,35 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -5184,35 +5189,35 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>88</v>
+      <c r="C77" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="J77" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -5230,37 +5235,37 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -5278,35 +5283,35 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>88</v>
+      <c r="C79" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="J79" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -5324,27 +5329,27 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>88</v>
+      <c r="C80" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>44</v>
@@ -5352,7 +5357,7 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -5370,20 +5375,20 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
@@ -5391,12 +5396,12 @@
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -5414,35 +5419,35 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>62</v>
+      <c r="C82" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I82" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -5460,35 +5465,35 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -5506,35 +5511,35 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>88</v>
+      <c r="C84" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I84" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -5552,37 +5557,37 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -5600,35 +5605,35 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -5646,35 +5651,35 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -5692,35 +5697,35 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>88</v>
+      <c r="C88" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I88" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -5738,37 +5743,37 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>88</v>
+      <c r="C89" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="J89" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
@@ -5786,27 +5791,27 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>88</v>
+      <c r="C90" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>44</v>
@@ -5814,7 +5819,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
@@ -5832,17 +5837,17 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>36</v>
@@ -5852,15 +5857,15 @@
         <v>210</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -5878,35 +5883,35 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" s="3" t="s">
         <v>88</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -5924,35 +5929,35 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J93" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -5970,35 +5975,35 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
@@ -6016,35 +6021,35 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>88</v>
+        <v>105</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
@@ -6062,35 +6067,35 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>88</v>
+      <c r="C96" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
@@ -6108,35 +6113,35 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>88</v>
+      <c r="C97" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -6154,35 +6159,35 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>88</v>
+      <c r="C98" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -6200,39 +6205,39 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H99" s="1" t="s">
+      <c r="I99" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -6250,26 +6255,26 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>62</v>
+      <c r="C100" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1" t="s">
@@ -6278,7 +6283,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -6296,37 +6301,37 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>378</v>
-      </c>
       <c r="D101" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
@@ -6344,35 +6349,35 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>62</v>
+      <c r="C102" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -6390,35 +6395,35 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
@@ -6436,35 +6441,35 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
@@ -6482,35 +6487,35 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
@@ -6528,17 +6533,17 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>221</v>
@@ -6547,16 +6552,16 @@
         <v>147</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
@@ -6574,39 +6579,39 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>88</v>
+      <c r="C107" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>147</v>
       </c>
       <c r="H107" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -6624,25 +6629,25 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G108" s="1"/>
-      <c r="H108" s="3" t="s">
+      <c r="H108" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I108" s="1"/>
@@ -6652,7 +6657,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -6670,33 +6675,33 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -6714,37 +6719,37 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>88</v>
+      <c r="C110" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -6762,33 +6767,33 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C111" s="3" t="s">
         <v>88</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
@@ -6806,33 +6811,33 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -6850,35 +6855,35 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J113" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -6896,33 +6901,33 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>88</v>
+        <v>105</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
@@ -6940,35 +6945,35 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
@@ -6986,35 +6991,35 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C116" s="3" t="s">
         <v>88</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I116" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -7032,35 +7037,35 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I117" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -7078,35 +7083,35 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>88</v>
+        <v>105</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I118" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -7124,35 +7129,35 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>88</v>
+      <c r="C119" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
@@ -7170,24 +7175,24 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I120" s="1"/>
       <c r="J120" s="1" t="s">
@@ -7196,7 +7201,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -7214,35 +7219,35 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B121" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -7260,35 +7265,35 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>88</v>
+      <c r="C122" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -7306,35 +7311,35 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>88</v>
+      <c r="C123" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>193</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -7352,35 +7357,35 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -7398,35 +7403,35 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>88</v>
+      <c r="C125" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -7444,35 +7449,35 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C126" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J126" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -7490,35 +7495,35 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C127" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>193</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J127" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
